--- a/temp/stagiaires_arrivees.xlsx
+++ b/temp/stagiaires_arrivees.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Arrivées" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,11 @@
           <t>Heure</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Signature</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,166 +461,71 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12:26:18</t>
+          <t>23:39:23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAASwAAADICAYAAABS39xVAAAAAXNSR0IArs4c6QAABc9JREFUeF7t1AEJAAAMAsHZv/RyPNwSyDncOQIECEQEFskpJgECBM5geQICBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIgYLD8AAECGQGDlalKUAIEDJYfIEAgI2CwMlUJSoCAwfIDBAhkBAxWpipBCRAwWH6AAIGMgMHKVCUoAQIGyw8QIJARMFiZqgQlQMBg+QECBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIgYLD8AAECGQGDlalKUAIEDJYfIEAgI2CwMlUJSoCAwfIDBAhkBAxWpipBCRAwWH6AAIGMgMHKVCUoAQIGyw8QIJARMFiZqgQlQMBg+QECBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIgYLD8AAECGQGDlalKUAIEDJYfIEAgI2CwMlUJSoCAwfIDBAhkBAxWpipBCRAwWH6AAIGMgMHKVCUoAQIGyw8QIJARMFiZqgQlQMBg+QECBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIgYLD8AAECGQGDlalKUAIEDJYfIEAgI2CwMlUJSoCAwfIDBAhkBAxWpipBCRAwWH6AAIGMgMHKVCUoAQIGyw8QIJARMFiZqgQlQMBg+QECBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIgYLD8AAECGQGDlalKUAIEDJYfIEAgI2CwMlUJSoCAwfIDBAhkBAxWpipBCRAwWH6AAIGMgMHKVCUoAQIGyw8QIJARMFiZqgQlQMBg+QECBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIgYLD8AAECGQGDlalKUAIEDJYfIEAgI2CwMlUJSoCAwfIDBAhkBAxWpipBCRAwWH6AAIGMgMHKVCUoAQIGyw8QIJARMFiZqgQlQMBg+QECBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIgYLD8AAECGQGDlalKUAIEDJYfIEAgI2CwMlUJSoCAwfIDBAhkBAxWpipBCRAwWH6AAIGMgMHKVCUoAQIGyw8QIJARMFiZqgQlQMBg+QECBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIgYLD8AAECGQGDlalKUAIEDJYfIEAgI2CwMlUJSoCAwfIDBAhkBAxWpipBCRAwWH6AAIGMgMHKVCUoAQIGyw8QIJARMFiZqgQlQMBg+QECBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIgYLD8AAECGQGDlalKUAIEDJYfIEAgI2CwMlUJSoCAwfIDBAhkBAxWpipBCRAwWH6AAIGMgMHKVCUoAQIGyw8QIJARMFiZqgQlQMBg+QECBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIgYLD8AAECGQGDlalKUAIEDJYfIEAgI2CwMlUJSoCAwfIDBAhkBAxWpipBCRAwWH6AAIGMgMHKVCUoAQIGyw8QIJARMFiZqgQlQMBg+QECBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIgYLD8AAECGQGDlalKUAIEDJYfIEAgI2CwMlUJSoCAwfIDBAhkBAxWpipBCRAwWH6AAIGMgMHKVCUoAQIGyw8QIJARMFiZqgQlQMBg+QECBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIgYLD8AAECGQGDlalKUAIEDJYfIEAgI2CwMlUJSoCAwfIDBAhkBAxWpipBCRAwWH6AAIGMgMHKVCUoAQIGyw8QIJARMFiZqgQlQMBg+QECBDICBitTlaAECBgsP0CAQEbAYGWqEpQAAYPlBwgQyAgYrExVghIg8BlYAMnOXmh9AAAAAElFTkSuQmCC</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>koffi</t>
+          <t>kimou</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aké</t>
+          <t>appiah</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12:26:56</t>
+          <t>23:41:15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAASwAAADICAYAAABS39xVAAAAAXNSR0IArs4c6QAAEBRJREFUeF7tnVvsPscYx78tbf2dqqiWOldQrSZFxbEREodIhEhpk16QRlw0KW7qUrlqGkHFIXGoiBANkYhTXAhFlARFW1WnEqWqpVRRZ/uVXdZ639/su+8enpn9bPLm13R2Z57n88x+/7Ozs88cJg4IQAACmRA4LBM7MRMCEICAECw6AQQgkA0BBCubUGEoBCCAYNEHIACBbAggWNmECkMhAAEEiz4AAQhkQwDByiZUGAoBCCBY9AEIQCAbAghWNqHCUAhAAMGiD0AAAtkQQLCyCRWGQgACCBZ9AAIQyIYAgpVNqDAUAhBAsOgDEIBANgQQrGxChaEQgACCRR+AAASyIYBgZRMqDIUABBAs+gAEIJANAQQrm1BhKAQggGDRByAAgWwIIFjZhApDIQABBIs+AAEIZEMAwcomVBgKAQggWPQBCEAgGwIIVjahwlAIQADBog9AAALZEECwsgkVhkIAAggWfQACEMiGAIKVTagwFAIQQLDoAxCAQDYEEKxsQoWhEIAAgkUf2JfANZJO3rcSrodAHwIIVh9KnHMQgX9K8u9wMEFgagII1tSEy67/H5Lch+hHZcc5jHd0tDChyM6QOyQdJcl/D2VnPQZnSQDByjJsIYxmdBUiDOsyAsFaV7zH9Ja5qzFpUlcvAghWL0yctIGABctvCE+BDgTmIoBgzUW6vHYsWFdIekp5ruFRVAIIVtTIxLfLgnWbpKPjm4qFpRBAsEqJ5Px+WLAul/SM+ZumxbUSQLDWGvn9/Uaw9mdIDTsSQLB2BMbp/yGAYNEZZieAYM2OvJgGEaxiQpmPIwhWPrGKZimCFS0iK7AHwVpBkCdyEcGaCCzVbieAYNE7hhJAsIaS47rBBBCswehWfyGCtfouMD8ABGt+5qW0aMH6uqTTS3EIP+ITQLDixyiqhRYsUstEjU6hdiFYhQZ2BrcsWH+TdMQMbdEEBP5NAMGiIwwlQHqZoeS4bjABBGswutVfSAK/1XeB+QEgWPMzL6VFBKuUSGbkB4KVUbCCmXq7pLsxrRAsKoWbg2AVHuAJ3btZ0n0RrAkJU/X/EUCw6BRDCZwr6T0I1lB8XDeEAII1hBrXNAT8pvBUSVeBBAJzEECw5qBcbhsWrHdIOq9cF/EsEgEEK1I08rOFz3Pyi1nWFiNYWYdvceMtWDdJOn5xSzBgFQQQrFWEeTInLVh/rJc3TNYIFUOgIYBg0Rf2IcD3hPvQ49qdCSBYOyPjghYBC5ZXvN8JKhCYgwCCNQflctvgA+hyYxvSMwQrZFiyMQrByiZUZRiKYJURx6W84APopcivtF0Ea6WBH8ltBGskkFTTjwCC1Y8TZ20m4IyjnnAvoR9dIukVku6yZ7At4l6bdqakr+xZF5d3CJTQ0QjqcgRyGWG9WdIrO2K0RN/3nJ+P99biuFzkMm15iaBligqzNxC4sV7lHqUf/VrSMbWdKZsa8fDf70s6aYIIXyvpxM4otG1X89KCZSE94aeC2rMaTlspgW9IetwCj4Sfl3RG3e62PtyIwVRitE/I31mP+Lq2cz8mqAJon27Htc6H5bxYU/Sji+osEM5q6uMgYXL5lZIen2lIflblFnugpF9IOiFTH2Yxe4qONovhNBKCwNMlfXEEwfp7YrRkZ5tHuN9LOjqE9+MY0cwDujYEixHWOL2KWrYSsJD4jdhHd2Tkm9NZHpp/NBtBsnhdLem0HevL6fQ/STqq5TufN/WMHiOsnqA47UDBukzSWT0Y3VvSLZ0R2Vpu1uaFQPueW4vvPbpGv1MQrH6cOGs7AY+MPCJ67AGQPGo6vFXua7yBxW8KBNsdPXVdtO8fknROgb5P7hKCNTni4hvwDehR07EdT73k4bjOI98vJT2gMCJePGsx3nQvNW8qb60FujDX53cHwZqfeWkt+qb0qOKutWPtSWT/r5Iee5rRk/3q3jusqZqhZyNYM0AuvAnfqM0jX3sCvZRHvm1vMJvkhUcWHt9Q7iFYocKRnTE3dNYN+SZuz1Vl55CkbY949u3sakW8XzBwLEQAwVoIfObNNh89N27kLFR/lnTElke8O1qPupmHrAzzEawy4jiXF+35KYvUxdUmFBf0WPQ5l3192vmLpDszB9UHVbxzEKx4MYlm0Y8lPbTztq/92PfXLQIQxQ/btykFDpPkUSK0gx0I1g6wVnhqe0Tlx0A/OnUPvzlzDqlIfam77ss2I1AFdOBInawAnMW44L0GD9Xe+Ob3I9S24+Z6jdGSfclzTX5bt2mpQe4vAYrpVGM4smQnG8N+6hifQDtPVJ+b/duSTl1ghLVtFOX/v2kkOD4papydAII1O/KwDbYf/763Q0K7SyW9fAbB+rCklzCKCtt/ZjEMwZoFc+hGfiLpIbWFQ5YnPE3SlyYSrE0T5s3mrQc9poYGjnHDCSBYw9mVcGV7VLVPX7CIePTzkRGgbFpZ7vqdjsZJ7jhWTGCfTrpibNm77rVIzTzP7ZLusadHFhSLlUVryNH9/tB1DBntDWmbazIigGBlFKyRTN11Ur1Ps67zOkmP7nOypN9KumfnMZJlBz3hrfk0BGs90W+Pqq6pMoSeMqLrFhunUHGCvm3Hpm/0mg+neas3YjBKrgrBKjm6//VtilFVm5zrtyA67W/72CZS51drt962DvR4OSYBBGtMmvHqao+qvlvNM508kYlNqpX2SKn73WGfNV0TmUe1pRBAsEqJ5P/64W3XPYrxMcfkdbPUoL0hqEdXLD0os38t5hWCtRj6yRpuj2y8V583Op366Cbwm7o96l8pAQSrnMC3hcrfAjYbkM7hYfPoSX+ag/aK26CDlRH8qSfVU5S8uendJ1rtnmqb8hURQLDyD3YjVkvG8uf1bjhL2pB/JPEgSYAOlkQU+oQIYmVAX5P0REZYoftKEcYhWPmG8bOSnh1EJLym6rwgtuQbUSxPEkCwkojCnnCTpPsFEYmnSvpyEFsiBszZMPy29iRJJ9YfcXvjWX8Z4Lk/J0v0GjZnp2j/vEFG83NmV//8QsW/P0jyd6CeP/TvNkm/q3/+9MlfHnhnbf/1+UUcCFa+Yfy4pBcEEgk/nr5Qku0q/XhOxf31kvyJkzNI+B+OYzri4zVp3cWyfpPrJSAWJYuPBceC8itJ3jLN31deXv/1B+n+WdD8xtc/b1ZrcXNKav+cZdVfF1js/PO6N/+atn1/++c2nJv/+vpv979tVxYHgpVFmDYa+UlJz69vgAgLNHf9ADoq+UfWWSc8avRoyCMhC0V3K7Bmdf828fmRpGurf1S+WSU4/OnCzt5H0sPr38M2/LcFrC1iTspoEQ13IFjhQrKTQU0+9VTe9Z0qHXiyb+CvSnrywOvnuuzcKuHgs+rPlI6vRzEepXRHQ40g+XHqlvqGvqJOo3P1XMbO0I79tpi1hey1M7Q7qAkEaxC2UBdFES3f4H6seVAAOm+sxPO5kh5cP0ptEiM/BnnzCs/32G5/FfBpSZ8IYD8mbCGAYJXRNRrRmuO7wW3E3LYnfz0PM8fxMklvqeeCPHm96ZHNI09PRnvy+U1VKuj31SI1h320MQEBBGsCqAtV2YiWm/fowUsePjejLRYsz+d4Inisw2u7XifpCfWk9rYdmz1Scgplv6m8UJLz1HMUSADBKi+ofvPU/o7Qq9DnyIVukbRotTM29KXrSd5nSjqufuu1qV96tORX+T+s5lveXy0JeGvfyjmvHAIIVjmx7HrywSpt8dmtZQ9Tj7pSH0C/QdKL6x16/Gp+U36sZl7JIvupak3Ra8oND54NIYBgDaGW3zXdUVfjgQXCeav8OPmFavRyzo6u+Y2b1149pn7L5P7kUdZB/arJTuo3b36EsyjduGO7nL5SAgjWugLvieozq9HL6dWE9b167JA8ZBuwZmGkJ+D99s3fGXqBJSmR19XXJvEWwZoEa7aVPqJ+8+bJ7ragtUXIj2teb/XuelFk46zXKD0p0Mr7bIOA4dsJIFj0jrEIeEX3aQjWWDipZxMBBIt+MRYBbxt2FYI1Fk7qQbDoA1MT8IT6WVVWgsumboj610mAEdY64z6V1xYsL6fY9W3jVPZQb2EEEKzCArqwOxYsPxaeurAdNF8oAQSr0MAu5JYFy2u6nB+KAwKjE0CwRke66gq9/MEZMp0/igMCoxNAsEZHuuoK/XmOP7mJkFBw1YEo1XkEq9TILuOXU7k4pe+m7wSXsYhWiyKAYBUVzsWdcXqZTSlgFjcMA8oggGCVEccoXji17kUsHo0SjvLsQLDKi+nSHvlNoYXr4qUNof3yCCBY5cV0aY+c4eEHkh61tCG0Xx4BBKu8mC7tUbPHHRPvS0eiwPYRrAKDurBLTgR4Bm8KF45Coc0jWIUGdkG3vL3WZ5h4XzACBTeNYBUc3AVd88S7t+AiJ/uCQSixaQSrxKgu75NXvDszqXcT5oDAaAQQrNFQUlGLwPVVCuUTRt6jEMAQOHB3E/BAYCiBS6rdls9nHmsoPq7bRoARFn1jKgJe3vBqNjydCu8660Ww1hn3Obz2fodvl/SqORqjjXUQQLDWEeclvLy1XvHuLcM4IDAKAQRrFIxUsoHAdyTdvxplHQsdCIxFAMEaiyT1dAlcWm9GcSRoIDAWAQRrLJLU0yXgjA0XSjoEGgiMRQDBGosk9Wwi4AWk3qfwY+CBwBgEEKwxKFLHNgLXSfqWpJeCCAJjEECwxqBIHdsIvEvSi5h4p4OMRQDBGosk9Wwi4PzuN0h6nqQrQQSBfQkgWPsS5PoUgQskfUDSjakTKYdAigCClSJEOQQgEIYAghUmFBgCAQikCCBYKUKUQwACYQggWGFCgSEQgECKAIKVIkQ5BCAQhgCCFSYUGAIBCKQIIFgpQpRDAAJhCCBYYUKBIRCAQIoAgpUiRDkEIBCGAIIVJhQYAgEIpAggWClClEMAAmEIIFhhQoEhEIBAigCClSJEOQQgEIYAghUmFBgCAQikCCBYKUKUQwACYQggWGFCgSEQgECKAIKVIkQ5BCAQhgCCFSYUGAIBCKQIIFgpQpRDAAJhCCBYYUKBIRCAQIoAgpUiRDkEIBCGAIIVJhQYAgEIpAggWClClEMAAmEIIFhhQoEhEIBAigCClSJEOQQgEIYAghUmFBgCAQikCCBYKUKUQwACYQggWGFCgSEQgECKAIKVIkQ5BCAQhgCCFSYUGAIBCKQIIFgpQpRDAAJhCCBYYUKBIRCAQIoAgpUiRDkEIBCGAIIVJhQYAgEIpAggWClClEMAAmEIIFhhQoEhEIBAigCClSJEOQQgEIYAghUmFBgCAQikCCBYKUKUQwACYQggWGFCgSEQgECKAIKVIkQ5BCAQhgCCFSYUGAIBCKQIIFgpQpRDAAJhCCBYYUKBIRCAQIoAgpUiRDkEIBCGAIIVJhQYAgEIpAggWClClEMAAmEIIFhhQoEhEIBAigCClSJEOQQgEIYAghUmFBgCAQikCCBYKUKUQwACYQggWGFCgSEQgECKAIKVIkQ5BCAQhgCCFSYUGAIBCKQI/Avvh8/Yxg2QuAAAAABJRU5ErkJggg==</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sondo</t>
+          <t>leo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stéphane </t>
+          <t>messi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12:27:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mr</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fario</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-09-19</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12:28:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Komoe</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Komoe Emile</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2024-09-19</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12:29:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Djan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2024-09-19</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12:32:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Boss</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Athur</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2024-09-19</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12:57:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diabagaté </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Kader</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024-09-19</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13:17:47</t>
+          <t>23:43:47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAASwAAADICAYAAABS39xVAAAAAXNSR0IArs4c6QAADOxJREFUeF7tnV3oddkcx7/zmFGUqCFceAlJ3grlArnRKKUoKa9D3LlQM0qRQSN5iym5Rd4v3EhKRi4IcSFvuVAoJGSalCTvznrsPbPnPOf8/3ufs9dev+/6ff5Xzzyzz1q/3+e75jNrr7PP+V8nfiAAAQiYELjOpE7KhAAEICCExSKAAARsCCAsm6goFAIQQFisAQhAwIYAwrKJikIhAAGExRqAAARsCCAsm6goFAIQQFisAQhAwIYAwrKJikIhAAGExRqAAARsCCAsm6goFAIQQFisAQhAwIYAwrKJikIhAAGExRqAAARsCCAsm6goFAIQQFisAQhAwIYAwrKJikIhAAGExRqAAARsCCAsm6goFAIQQFisAQhAwIYAwrKJikIhAAGExRqAAARsCCAsm6goFAIQQFisAQhAwIYAwrKJ6ppC/zv5m/LnK76tUDkE5hFAWPM4RbxqKqxSH9KKmBI1rUoAYa2Ks9lg/5Gu/lJcpNUsAibeggDC2oLyNnMgrW04M0tDAgirIfwKU4/S+rqkF1YYnyEh0JQAwmqKv8rk49kW2VbBy6AtCbCoW9KvM/edkm7iPKsOXEZtSwBhteVfa3ZuDWuRZdymBBBWU/xVJ+fWsCpeBm9BAGG1oL7NnNwabsOZWTYkgLA2hN1gqvHWkJwbwGfK9QmwkNdnGm3EcmvIA6XRUqGekwggrJOwWb2IXZZVXBR7EQGElWN9sMvKkXP3XSKs7iO+2iC7rBw5d98lwuo+4nsaZJeVJ+tuO0VY3UZ7TWPssvJk3W2nCKvbaA82xi4rV97ddYuwuov0wobYZeXKu7tuEVZ3kV7aELusSxFxQVQCCCtqMvXqYpdVjy0jVyaAsCoDDjo8u6ygwVDWxQQQVs4Vwi4rZ+72XSMs+whPboBd1snoeGErAgirFfn287LLap8BFSwkgLAWAuvscnZZnQXaezsIq/eEL+6PXVbu/O26R1h2ka1eMLus1ZEyYC0CCKsWWZ9x2WX5ZJW+UoSVfglcBcAui3VgQQBhWcRUvUh2WdURM8EaBBDWGhT7GINdVh85dt0Fwuo63kXNsctahIuLWxBAWC2ox52TXVbcbKhMEsJiGUwJsMtiPYQmgLBCx9OkOHZZTbAz6RwCCGsOpVzX/FvSFUm/lfToXK3TbXQCCCt6Qm3qK7us8sP6aMOfWY8QYEGyNA4R+Kek6yX9S9INIIJAFAIIK0oS8epglxUvk/QVIaz0S+AogN9IetTwW6PvByYIRCCAsCKkELcGHnOIm03KyhBWytgXNc1jDotwcXFNAgirJt0+xmaX1UeOXXSBsLqIsXoT7LKqI2aCOQQQ1hxKXMMuizUQggDCChFD+CLGp99ZL+Gj6rtAFmDf+a7ZXbkt5EHSNYky1mICCGsxsrQv4BwrbfRxGkdYcbKIXgnnWNETSlAfwkoQ8kotIqyVQDLM6QQQ1unssr3yU5JulvQ5Sa/J1jz9xiCAsGLk4FIF51guSXVaJ8LqNNhKbSGsSmAZdh4BhDWPE1f9nwDnWKyEpgQQVlP8dpOPX+zHurGLro+CWXh95LhlF+W2sOy0+I6sLakz11UCCIuFsJQA51hLiXH9agQQ1moo0wzEOVaaqOM1irDiZRK9Ij4IHT2hjutDWB2HW7E1PghdES5DHyeAsFgdpxDgHOsUarzmbAII62yEKQfgHCtl7O2bRljtM3CsAGEtT+3+kl4k6bmSniLpMZL+tDfMNyf//O7lU/T/CoTVf8Y1OvyspFdL+rSk19WYINiYL5V0i6SnzXwUqDyj9jdJD5JURDV9Zq28afEPSX+R9GtJf530irAuCR5hBfsvw6icHs+xHirpo5KeL+lhkm7YE9Qom7/PyOl3g5B+Juk7kr46iGrGS7nkGAGExdo4lYC7sMot18slPVbSA/bEVHorO6SyA/qipHedConXrUsAYa3LM9NoTudYH5b0pmHHNL09K2Iqn48sZ0nfkvRmSXdlCtGtV4TllliceiN/EPqm3aH2JyU9UtKVCbJydvQ9SXdI+lIclFQylwDCmkuK6w4RiPRB6B9Ierqk6/cE9W1JLyC+PgggrD5ybNVFy3OsL0h6yXD+NPZfDsV/NRya/6EVFOatRwBh1WObYeQtz7HK+dJtkm6cHJAXYd69u+27fXh3LwPz1D0irNTxn918TWE9YjgIf9zec0zl3bsvS3rF2dUzgB0BhGUXWaiCyyH2/rNK5xT4DUnPGx62HMcpv236J5Kedc7AvLYPAgirjxxbdjE+GlCe6F76811Jz97bQZVd2+8lvUHSnUsH5Pq+CSCsvvPdoru5B+8fkvRGSQ858PGWslP72O7jKm/ZomDm8CWAsHyzi1L5IWE9QdJXJD1+7zGDUnN5J++Pkt4xPCsVpQ/qMCCAsAxCCl7iePBePsT7wAO7p/L3X5P0suB9UJ4BAYRlEFKwEl+/O2h/r6SHH/jNOeWA/JeSXrz7dfa/CFY35XRAAGF1EGLlFn40fK3K9CMuZcpyK/jn4StUytPlrKXKQTA8i4w1cF8Cb5f01t1n7R58AEy59fv+7p275xz4d+e8U0gGEJhNgP8rzkbV5YU/lPTUAwfjpdmye/qApPfP6HzuO4UzhuISCBwngLDyrI63Dbun8ljB/k85e/rp7gnyZ56IA2GdCI6XLSOAsJbxcrq6fHXxJ/a+XmWsv+yePijpfSs1VPMjOiuVyDA9EEBYPaR4bw83S/r43i1e2f38WNIzKraKsCrCZeh7CSAs/9Xw2mEnNf0eqHKLVz7a8pmN2ov8ZX4bIWCaLQggrC0orz/HMUmVj76U32TT4qfs5H4u6UktJmfOHAQQllfO5TewPHlSctlJtZTUlF6kbx/1SpVqZxNAWLNRhbiwSKH8lM/jTW8BIxTHO4URUui8BoTlF/AorWjZRa3LL2EqPkog2qInqnkEIu5meKdwXnZcdQYBhHUGvIYvHeXwKknllzFE+Cm3qeXzhqypCGl0WgOLyzfYaLdg5R3CJyIs3wXlUDnCckjpcI2v3Ani88O3Jux/k0KrropEyzuX5Xve+YHA6gQQ1upINx1wvDUsooggrYhna5sGwmR1CSCsuny3GD2StBDWFoknngNh9RF+FGlFO1frI126uIcAwupnMUSQRYQa+kmUTq4hgLD6WRQRZBGhhn4SpROE1fEaGG8LW34AGWF1vMAitMYOK0IK69XQWhit51+PJCOFJICwQsZyVlEt36lDWGdFx4svI4CwLiPk9+/HJ85bPJuFsPzWi1XFCMsqrtnFjudZ5QW37n5t1x2zX3nehQjrPH68+hICCKvfJXKLpI8M7W2120JY/a6nEJ0hrBAxVC1iy4dKEVbVKBkcYeVYA1tJC2HlWE/NukRYzdBvPvEW0kJYm8eaa0KElSvv2tJCWLnW0+bdIqzNkTefsKa0EFbzePsuAGH1ne+x7mpJC2HlXE+bdY2wNkMdbqLps1rvlPSeFSpEWCtAZIjjBBBW7tVx2+6bSm9f8VkthJV7PVXvHmFVR2wxwVq7LYRlEbdvkQjLN7u1K19jt4Ww1k6F8e5DAGGxIPYJnHMgj7BYT1UJIKyqeG0HP1VaCMs2co/CEZZHTi2qPEVaCKtFUonmRFiJwj6h1aXSQlgnQOYl8wkgrPmssl65RFoIK+sq2ahvhLURaPNp5koLYZkHHb18hBU9oTj1zZEWwoqTV5eVIKwuY63W1GXSQljV0DNwIYCwWAdLCVwkLYS1lCbXLyKAsBbh4uKBwPSjPNM1hLBYIlUJIKyqeLse/C5JNw4d3j38GWF1HXn75hBW+wzcK5jeIo7riXXlnmrQ+llYQYMxK2t6i8jZqFl4TuUiLKe0Ytc6Sos1FTsn6+pYXNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBNAWNbxUTwEchFAWLnyplsIWBP4H9VnW9g9jmhbAAAAAElFTkSuQmCC</t>
         </is>
       </c>
     </row>
